--- a/raw-data/cornell_raw_2024.xlsx
+++ b/raw-data/cornell_raw_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D4AAC4-CD21-0A4F-8A30-90F1453C553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F21FAA-E85C-FD4F-A653-8CA90E3FC5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19740" yWindow="-28140" windowWidth="34160" windowHeight="27980" xr2:uid="{1B284ED1-A426-8247-BBD3-91EC1427814C}"/>
+    <workbookView xWindow="-14560" yWindow="-28140" windowWidth="25940" windowHeight="26860" xr2:uid="{1B284ED1-A426-8247-BBD3-91EC1427814C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC34D5B-7725-5343-81AA-9EB2A0498E47}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1084,7 @@
         <v>24</v>
       </c>
       <c r="N9" s="8">
-        <v>491.5</v>
+        <v>343.42</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1128,8 +1128,9 @@
         <v>21</v>
       </c>
       <c r="N10" s="8">
-        <v>343.42</v>
-      </c>
+        <v>491.5</v>
+      </c>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1306,10 +1307,10 @@
       <c r="M14">
         <v>21</v>
       </c>
-      <c r="N14" s="8">
-        <v>428.99</v>
-      </c>
-      <c r="O14" s="7"/>
+      <c r="N14">
+        <v>303.73</v>
+      </c>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1351,8 +1352,8 @@
       <c r="M15">
         <v>17</v>
       </c>
-      <c r="N15">
-        <v>303.73</v>
+      <c r="N15" s="8">
+        <v>428.99</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1617,9 +1618,9 @@
         <v>20</v>
       </c>
       <c r="N21" s="8">
-        <v>380.83</v>
-      </c>
-      <c r="O21" s="7"/>
+        <v>166.04</v>
+      </c>
+      <c r="O21" s="8"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1662,9 +1663,9 @@
         <v>26</v>
       </c>
       <c r="N22" s="8">
-        <v>166.04</v>
-      </c>
-      <c r="O22" s="7"/>
+        <v>380.83</v>
+      </c>
+      <c r="O22" s="8"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -2197,9 +2198,8 @@
         <v>26</v>
       </c>
       <c r="N34" s="8">
-        <v>223.91</v>
-      </c>
-      <c r="O34" s="7"/>
+        <v>120.69</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -2242,9 +2242,8 @@
         <v>19</v>
       </c>
       <c r="N35" s="8">
-        <v>120.69</v>
-      </c>
-      <c r="O35" s="7"/>
+        <v>223.91</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
